--- a/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
+++ b/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
@@ -29,8 +29,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -61,9 +62,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,1058 +379,1058 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B2">
-        <v>18</v>
-      </c>
-      <c r="C2">
-        <v>0.001379529712721705</v>
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.01136843115091324</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3">
-        <v>0.001378434477373958</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.0009282631799578667</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>0.001378434477373958</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.0009282631799578667</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-      <c r="C5">
-        <v>0.001673525897786021</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0009282631799578667</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B6">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>0.001673525897786021</v>
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0009282631799578667</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>0.001768877962604165</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0009282631799578667</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45329</v>
+        <v>45334</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.001720354077406228</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.000956380448769778</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0.001720354077406228</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>0.001647370285354555</v>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
-        <v>0.001638930640183389</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>0.001638930640183389</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>0.001638930640183389</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>0.001647370285354555</v>
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15">
-        <v>0.001865388010628521</v>
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0007617130759172142</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B16">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>0.06878923624753952</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.007718403358012438</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>0.1412934213876724</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.0706971287727356</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>0.1787375658750534</v>
+        <v>9</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.07709497958421707</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B19">
-        <v>11</v>
-      </c>
-      <c r="C19">
-        <v>0.1678930968046188</v>
+        <v>10</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.07559714466333389</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B20">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>0.16547591984272</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0961662083864212</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>0.1957501173019409</v>
+        <v>12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.1100706979632378</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B22">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>0.2174835354089737</v>
+        <v>13</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.1187803074717522</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>0.1655314564704895</v>
+        <v>14</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.1032798439264297</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B24">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>0.1190208941698074</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.05290074646472931</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B25">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>0.01078437548130751</v>
+        <v>16</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.03211681917309761</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B26">
-        <v>18</v>
-      </c>
-      <c r="C26">
-        <v>0.001673525897786021</v>
+        <v>17</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.007684560026973486</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>0.001301604206673801</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>0.001307225204072893</v>
+        <v>19</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B29">
-        <v>21</v>
-      </c>
-      <c r="C29">
-        <v>0.001276310649700463</v>
+        <v>20</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B30">
-        <v>22</v>
-      </c>
-      <c r="C30">
-        <v>0.001293365145102143</v>
+        <v>21</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45329</v>
+        <v>45335</v>
       </c>
       <c r="B31">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>0.001318358699791133</v>
+        <v>22</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45330</v>
+        <v>45335</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0.001524205785244703</v>
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0.001650374615564942</v>
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.0007338552386499941</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34">
-        <v>0.001650374615564942</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.0007338552386499941</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35">
-        <v>0.001650374615564942</v>
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.0007648980827070773</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="C36">
-        <v>0.001650374615564942</v>
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.0007648980827070773</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B37">
-        <v>5</v>
-      </c>
-      <c r="C37">
-        <v>0.001650374615564942</v>
+        <v>4</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.0007739612483419478</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>0.001650374615564942</v>
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.0007511495496146381</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>0.006351298186928034</v>
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.0007511495496146381</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B40">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>0.09878417104482651</v>
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.008684492669999599</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>0.1499638706445694</v>
+        <v>8</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.06474535912275314</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B42">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>0.1611800044775009</v>
+        <v>9</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.1066415756940842</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B43">
-        <v>11</v>
-      </c>
-      <c r="C43">
-        <v>0.1405278891324997</v>
+        <v>10</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.1562931537628174</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B44">
-        <v>12</v>
-      </c>
-      <c r="C44">
-        <v>0.2140452116727829</v>
+        <v>11</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.197435051202774</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B45">
-        <v>13</v>
-      </c>
-      <c r="C45">
-        <v>0.2436159700155258</v>
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.1964391320943832</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B46">
-        <v>14</v>
-      </c>
-      <c r="C46">
-        <v>0.1271831840276718</v>
+        <v>13</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.2023792862892151</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B47">
-        <v>15</v>
-      </c>
-      <c r="C47">
-        <v>0.1238880679011345</v>
+        <v>14</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.1686817854642868</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B48">
-        <v>16</v>
-      </c>
-      <c r="C48">
-        <v>0.06509074568748474</v>
+        <v>15</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.09790011495351791</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B49">
-        <v>17</v>
-      </c>
-      <c r="C49">
-        <v>0.006665972992777824</v>
+        <v>16</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.02869090065360069</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B50">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>0.001272440538741648</v>
+        <v>17</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.007545936852693558</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B51">
-        <v>19</v>
-      </c>
-      <c r="C51">
-        <v>0.001264424878172576</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B52">
-        <v>20</v>
-      </c>
-      <c r="C52">
-        <v>0.001264424878172576</v>
+        <v>19</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.0007503151427954435</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B53">
-        <v>21</v>
-      </c>
-      <c r="C53">
-        <v>0.001263429992832243</v>
+        <v>20</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.0007451482815667987</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B54">
-        <v>22</v>
-      </c>
-      <c r="C54">
-        <v>0.001266994397155941</v>
+        <v>21</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.0007676094537600875</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B55">
-        <v>23</v>
-      </c>
-      <c r="C55">
-        <v>0.001266994397155941</v>
+        <v>22</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.0007751999655738473</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45331</v>
+        <v>45336</v>
       </c>
       <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0.001482054009102285</v>
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.0007751999655738473</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>0.001657129731029272</v>
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.0007587399450130761</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>0.001533165341243148</v>
+        <v>1</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.0007587399450130761</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>0.001533165341243148</v>
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.0007587399450130761</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B60">
-        <v>4</v>
-      </c>
-      <c r="C60">
-        <v>0.001509319292381406</v>
+        <v>3</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.000941842736210674</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>0.001508170156739652</v>
+        <v>4</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.0007048580446280539</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>0.001533165341243148</v>
+        <v>5</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0.0007250827620737255</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B63">
-        <v>7</v>
-      </c>
-      <c r="C63">
-        <v>0.008747072890400887</v>
+        <v>6</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0.0007250827620737255</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B64">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>0.064646877348423</v>
+        <v>7</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.01460093166679144</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B65">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>0.1892888098955154</v>
+        <v>8</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0.08208285272121429</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B66">
-        <v>10</v>
-      </c>
-      <c r="C66">
-        <v>0.1478215754032135</v>
+        <v>9</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0.1833286881446838</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B67">
-        <v>11</v>
-      </c>
-      <c r="C67">
-        <v>0.1666353195905685</v>
+        <v>10</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0.3468461930751801</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B68">
-        <v>12</v>
-      </c>
-      <c r="C68">
-        <v>0.1736796647310257</v>
+        <v>11</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0.4045964777469635</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B69">
-        <v>13</v>
-      </c>
-      <c r="C69">
-        <v>0.1442470997571945</v>
+        <v>12</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0.4195320308208466</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B70">
-        <v>14</v>
-      </c>
-      <c r="C70">
-        <v>0.1730788946151733</v>
+        <v>13</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.3845234811306</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B71">
-        <v>15</v>
-      </c>
-      <c r="C71">
-        <v>0.176275908946991</v>
+        <v>14</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.3251128792762756</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B72">
-        <v>16</v>
-      </c>
-      <c r="C72">
-        <v>0.1246144697070122</v>
+        <v>15</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.2042779326438904</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B73">
-        <v>17</v>
-      </c>
-      <c r="C73">
-        <v>0.01135637518018484</v>
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
+        <v>0.1368286609649658</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B74">
-        <v>18</v>
-      </c>
-      <c r="C74">
-        <v>0.001673525897786021</v>
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>0.01550786104053259</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B75">
-        <v>19</v>
-      </c>
-      <c r="C75">
-        <v>0.001673525897786021</v>
+        <v>18</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0.0007813581032678485</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B76">
-        <v>20</v>
-      </c>
-      <c r="C76">
-        <v>0.001673525897786021</v>
+        <v>19</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0.0007451482815667987</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B77">
-        <v>21</v>
-      </c>
-      <c r="C77">
-        <v>0.001673525897786021</v>
+        <v>20</v>
+      </c>
+      <c r="C77" s="2">
+        <v>0.0007676094537600875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B78">
-        <v>22</v>
-      </c>
-      <c r="C78">
-        <v>0.001673525897786021</v>
+        <v>21</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0.0007751999655738473</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45331</v>
+        <v>45337</v>
       </c>
       <c r="B79">
-        <v>23</v>
-      </c>
-      <c r="C79">
-        <v>0.001763256965205073</v>
+        <v>22</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0.0007751999655738473</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45332</v>
+        <v>45337</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0.001720354077406228</v>
+        <v>23</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0.0007751999655738473</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>0.001720354077406228</v>
+        <v>0</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.0007587399450130761</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B82">
-        <v>2</v>
-      </c>
-      <c r="C82">
-        <v>0.001647370285354555</v>
+        <v>1</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.0007587399450130761</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>0.001638930640183389</v>
+        <v>2</v>
+      </c>
+      <c r="C83" s="2">
+        <v>0.000941842736210674</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B84">
-        <v>4</v>
-      </c>
-      <c r="C84">
-        <v>0.001638930640183389</v>
+        <v>3</v>
+      </c>
+      <c r="C84" s="2">
+        <v>0.0007048580446280539</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B85">
-        <v>5</v>
-      </c>
-      <c r="C85">
-        <v>0.001638930640183389</v>
+        <v>4</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0.0007048580446280539</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B86">
-        <v>6</v>
-      </c>
-      <c r="C86">
-        <v>0.001638930640183389</v>
+        <v>5</v>
+      </c>
+      <c r="C86" s="2">
+        <v>0.0007250827620737255</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B87">
-        <v>7</v>
-      </c>
-      <c r="C87">
-        <v>0.00642428221181035</v>
+        <v>6</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0.0007048580446280539</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B88">
-        <v>8</v>
-      </c>
-      <c r="C88">
-        <v>0.08348578959703445</v>
+        <v>7</v>
+      </c>
+      <c r="C88" s="2">
+        <v>0.01817174069583416</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B89">
-        <v>9</v>
-      </c>
-      <c r="C89">
-        <v>0.1498599201440811</v>
+        <v>8</v>
+      </c>
+      <c r="C89" s="2">
+        <v>0.07010671496391296</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B90">
-        <v>10</v>
-      </c>
-      <c r="C90">
-        <v>0.1688929200172424</v>
+        <v>9</v>
+      </c>
+      <c r="C90" s="2">
+        <v>0.08103158324956894</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B91">
-        <v>11</v>
-      </c>
-      <c r="C91">
-        <v>0.1617336869239807</v>
+        <v>10</v>
+      </c>
+      <c r="C91" s="2">
+        <v>0.1660050749778748</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B92">
-        <v>12</v>
-      </c>
-      <c r="C92">
-        <v>0.1644400060176849</v>
+        <v>11</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.2291617393493652</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B93">
-        <v>13</v>
-      </c>
-      <c r="C93">
-        <v>0.1772301346063614</v>
+        <v>12</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.3080613613128662</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B94">
-        <v>14</v>
-      </c>
-      <c r="C94">
-        <v>0.1832491159439087</v>
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.3227607011795044</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B95">
-        <v>15</v>
-      </c>
-      <c r="C95">
-        <v>0.1839259117841721</v>
+        <v>14</v>
+      </c>
+      <c r="C95" s="2">
+        <v>0.3319303095340729</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B96">
-        <v>16</v>
-      </c>
-      <c r="C96">
-        <v>0.1279646456241608</v>
+        <v>15</v>
+      </c>
+      <c r="C96" s="2">
+        <v>0.1946074515581131</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45332</v>
+        <v>45338</v>
       </c>
       <c r="B97">
-        <v>17</v>
-      </c>
-      <c r="C97">
-        <v>0.01568935625255108</v>
+        <v>16</v>
+      </c>
+      <c r="C97" s="2">
+        <v>0.1391737759113312</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
+++ b/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
@@ -29,9 +29,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -62,10 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,1058 +377,1058 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.01136843115091324</v>
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0.09200000017881393</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0009282631799578667</v>
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>0.02899999916553497</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.0009282631799578667</v>
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.007000000216066837</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.0009282631799578667</v>
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B6">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.0009282631799578667</v>
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B7">
-        <v>22</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.0009282631799578667</v>
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B8">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.000956380448769778</v>
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.0007617130759172142</v>
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45335</v>
+        <v>45336</v>
       </c>
       <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.0007617130759172142</v>
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.0007617130759172142</v>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.0007617130759172142</v>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.0007617130759172142</v>
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.0007617130759172142</v>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.0007617130759172142</v>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.007718403358012438</v>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B17">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.0706971287727356</v>
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B18">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.07709497958421707</v>
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>0.01099999994039536</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B19">
-        <v>10</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.07559714466333389</v>
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>0.08699999749660492</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B20">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.0961662083864212</v>
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.1790000051259995</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B21">
-        <v>12</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.1100706979632378</v>
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>0.3170000016689301</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B22">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.1187803074717522</v>
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>0.4050000011920929</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.1032798439264297</v>
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>0.4280000030994415</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.05290074646472931</v>
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>0.3919999897480011</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B25">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.03211681917309761</v>
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>0.3440000116825104</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.007684560026973486</v>
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>0.2000000029802322</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.0007503151427954435</v>
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>0.1630000025033951</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B28">
-        <v>19</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.0007503151427954435</v>
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>0.01499999966472387</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B29">
-        <v>20</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.0007503151427954435</v>
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B30">
-        <v>21</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.0007503151427954435</v>
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.0007503151427954435</v>
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B32">
-        <v>23</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.0007503151427954435</v>
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.0007338552386499941</v>
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.0007338552386499941</v>
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.0007648980827070773</v>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B36">
-        <v>3</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.0007648980827070773</v>
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.0007739612483419478</v>
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B38">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.0007511495496146381</v>
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.0007511495496146381</v>
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B40">
-        <v>7</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.008684492669999599</v>
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B41">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.06474535912275314</v>
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.1066415756940842</v>
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B43">
-        <v>10</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.1562931537628174</v>
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0.08799999952316284</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B44">
-        <v>11</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.197435051202774</v>
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>0.1850000023841858</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B45">
-        <v>12</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.1964391320943832</v>
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>0.3370000123977661</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B46">
-        <v>13</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.2023792862892151</v>
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0.4070000052452087</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B47">
-        <v>14</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.1686817854642868</v>
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>0.4099999964237213</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B48">
-        <v>15</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.09790011495351791</v>
+        <v>13</v>
+      </c>
+      <c r="C48">
+        <v>0.4000000059604645</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B49">
-        <v>16</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.02869090065360069</v>
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>0.3089999854564667</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B50">
-        <v>17</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.007545936852693558</v>
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>0.2020000070333481</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B51">
-        <v>18</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.0007503151427954435</v>
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>0.1400000005960464</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B52">
-        <v>19</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0.0007503151427954435</v>
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>0.01600000075995922</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B53">
-        <v>20</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0.0007451482815667987</v>
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B54">
-        <v>21</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0.0007676094537600875</v>
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B55">
-        <v>22</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.0007751999655738473</v>
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B56">
-        <v>23</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.0007751999655738473</v>
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57" s="2">
-        <v>0.0007587399450130761</v>
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0.0007587399450130761</v>
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B59">
-        <v>2</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.0007587399450130761</v>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.000941842736210674</v>
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B61">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0.0007048580446280539</v>
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B62">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2">
-        <v>0.0007250827620737255</v>
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.0007250827620737255</v>
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B64">
-        <v>7</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0.01460093166679144</v>
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B65">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2">
-        <v>0.08208285272121429</v>
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B66">
-        <v>9</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0.1833286881446838</v>
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>0.01600000075995922</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B67">
-        <v>10</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.3468461930751801</v>
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>0.08100000023841858</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B68">
-        <v>11</v>
-      </c>
-      <c r="C68" s="2">
-        <v>0.4045964777469635</v>
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>0.1949999928474426</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B69">
-        <v>12</v>
-      </c>
-      <c r="C69" s="2">
-        <v>0.4195320308208466</v>
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>0.3440000116825104</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B70">
-        <v>13</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.3845234811306</v>
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>0.367000013589859</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B71">
-        <v>14</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.3251128792762756</v>
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>0.3600000143051147</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B72">
-        <v>15</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0.2042779326438904</v>
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>0.3849999904632568</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B73">
-        <v>16</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0.1368286609649658</v>
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>0.3070000112056732</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B74">
-        <v>17</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0.01550786104053259</v>
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>0.1509999930858612</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B75">
-        <v>18</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0.0007813581032678485</v>
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>0.1519999951124191</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B76">
-        <v>19</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0.0007451482815667987</v>
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>0.02300000004470348</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B77">
-        <v>20</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0.0007676094537600875</v>
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B78">
-        <v>21</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0.0007751999655738473</v>
+        <v>19</v>
+      </c>
+      <c r="C78">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B79">
-        <v>22</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0.0007751999655738473</v>
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
-        <v>45337</v>
+        <v>45339</v>
       </c>
       <c r="B80">
-        <v>23</v>
-      </c>
-      <c r="C80" s="2">
-        <v>0.0007751999655738473</v>
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0.0007587399450130761</v>
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0.0007587399450130761</v>
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B83">
-        <v>2</v>
-      </c>
-      <c r="C83" s="2">
-        <v>0.000941842736210674</v>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B84">
-        <v>3</v>
-      </c>
-      <c r="C84" s="2">
-        <v>0.0007048580446280539</v>
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" s="2">
-        <v>0.0007048580446280539</v>
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B86">
-        <v>5</v>
-      </c>
-      <c r="C86" s="2">
-        <v>0.0007250827620737255</v>
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B87">
-        <v>6</v>
-      </c>
-      <c r="C87" s="2">
-        <v>0.0007048580446280539</v>
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B88">
-        <v>7</v>
-      </c>
-      <c r="C88" s="2">
-        <v>0.01817174069583416</v>
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B89">
-        <v>8</v>
-      </c>
-      <c r="C89" s="2">
-        <v>0.07010671496391296</v>
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B90">
-        <v>9</v>
-      </c>
-      <c r="C90" s="2">
-        <v>0.08103158324956894</v>
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>0.00800000037997961</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B91">
-        <v>10</v>
-      </c>
-      <c r="C91" s="2">
-        <v>0.1660050749778748</v>
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>0.07999999821186066</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B92">
-        <v>11</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0.2291617393493652</v>
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>0.1070000007748604</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B93">
-        <v>12</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0.3080613613128662</v>
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>0.1049999967217445</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B94">
-        <v>13</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0.3227607011795044</v>
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>0.1319999992847443</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B95">
-        <v>14</v>
-      </c>
-      <c r="C95" s="2">
-        <v>0.3319303095340729</v>
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>0.1239999979734421</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B96">
-        <v>15</v>
-      </c>
-      <c r="C96" s="2">
-        <v>0.1946074515581131</v>
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>0.1389999985694885</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
-        <v>45338</v>
+        <v>45340</v>
       </c>
       <c r="B97">
-        <v>16</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0.1391737759113312</v>
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>0.1519999951124191</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
+++ b/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
@@ -377,98 +377,98 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>0.09200000017881393</v>
+        <v>0.3129999935626984</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>0.02899999916553497</v>
+        <v>0.3930000066757202</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.007000000216066837</v>
+        <v>0.425000011920929</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.001000000047497451</v>
+        <v>0.4020000100135803</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>0.001000000047497451</v>
+        <v>0.3459999859333038</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>0.001000000047497451</v>
+        <v>0.2029999941587448</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C8">
-        <v>0.001000000047497451</v>
+        <v>0.1620000004768372</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>0.001000000047497451</v>
+        <v>0.01400000043213367</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45336</v>
+        <v>45337</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0.001000000047497451</v>
@@ -479,7 +479,7 @@
         <v>45337</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>0.001000000047497451</v>
@@ -490,7 +490,7 @@
         <v>45337</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0.001000000047497451</v>
@@ -501,7 +501,7 @@
         <v>45337</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0.001000000047497451</v>
@@ -512,7 +512,7 @@
         <v>45337</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0.001000000047497451</v>
@@ -523,7 +523,7 @@
         <v>45337</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.001000000047497451</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0.001000000047497451</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>0.001000000047497451</v>
@@ -553,186 +553,186 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>0.01099999994039536</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>0.08699999749660492</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.1790000051259995</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>0.3170000016689301</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>0.4050000011920929</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>0.4280000030994415</v>
+        <v>0.01099999994039536</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>0.3919999897480011</v>
+        <v>0.08600000292062759</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>0.3440000116825104</v>
+        <v>0.1850000023841858</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>0.2000000029802322</v>
+        <v>0.3310000002384186</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C27">
-        <v>0.1630000025033951</v>
+        <v>0.4099999964237213</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>0.01499999966472387</v>
+        <v>0.4079999923706055</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.001000000047497451</v>
+        <v>0.3919999897480011</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B30">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>0.001000000047497451</v>
+        <v>0.300000011920929</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B31">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.001000000047497451</v>
+        <v>0.1979999989271164</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C32">
-        <v>0.001000000047497451</v>
+        <v>0.1389999985694885</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C33">
-        <v>0.001000000047497451</v>
+        <v>0.02099999971687794</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45337</v>
+        <v>45338</v>
       </c>
       <c r="B34">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>0.001000000047497451</v>
@@ -743,7 +743,7 @@
         <v>45338</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>0.001000000047497451</v>
@@ -754,7 +754,7 @@
         <v>45338</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>0.001000000047497451</v>
@@ -765,7 +765,7 @@
         <v>45338</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>0.001000000047497451</v>
@@ -776,7 +776,7 @@
         <v>45338</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>0.001000000047497451</v>
@@ -787,7 +787,7 @@
         <v>45338</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C39">
         <v>0.001000000047497451</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0.001000000047497451</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0.001000000047497451</v>
@@ -817,90 +817,90 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0.009999999776482582</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C43">
-        <v>0.08799999952316284</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B44">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>0.1850000023841858</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C45">
-        <v>0.3370000123977661</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B46">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.4070000052452087</v>
+        <v>0.001000000047497451</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B47">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0.4099999964237213</v>
+        <v>0.01099999994039536</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B48">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0.4000000059604645</v>
+        <v>0.08100000023841858</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45338</v>
+        <v>45339</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0.3089999854564667</v>
+        <v>0.1940000057220459</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -911,7 +911,7 @@
         <v>15</v>
       </c>
       <c r="C50">
-        <v>0.2020000070333481</v>
+        <v>0.1979999989271164</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -922,7 +922,7 @@
         <v>16</v>
       </c>
       <c r="C51">
-        <v>0.1400000005960464</v>
+        <v>0.1389999985694885</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -933,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="C52">
-        <v>0.01600000075995922</v>
+        <v>0.02099999971687794</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>0.01600000075995922</v>
+        <v>0.01099999994039536</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1109,326 +1109,152 @@
         <v>9</v>
       </c>
       <c r="C68">
-        <v>0.1949999928474426</v>
+        <v>0.1940000057220459</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
       <c r="C69">
-        <v>0.3440000116825104</v>
+        <v>0.2569999992847443</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B70">
-        <v>11</v>
-      </c>
       <c r="C70">
-        <v>0.367000013589859</v>
+        <v>0.3720000088214874</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B71">
-        <v>12</v>
-      </c>
       <c r="C71">
-        <v>0.3600000143051147</v>
+        <v>0.414000004529953</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B72">
-        <v>13</v>
-      </c>
       <c r="C72">
-        <v>0.3849999904632568</v>
+        <v>0.4050000011920929</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B73">
-        <v>14</v>
-      </c>
       <c r="C73">
-        <v>0.3070000112056732</v>
+        <v>0.3120000064373016</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B74">
-        <v>15</v>
-      </c>
       <c r="C74">
-        <v>0.1509999930858612</v>
+        <v>0.2689999938011169</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B75">
-        <v>16</v>
-      </c>
       <c r="C75">
-        <v>0.1519999951124191</v>
+        <v>0.239999994635582</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B76">
-        <v>17</v>
-      </c>
       <c r="C76">
-        <v>0.02300000004470348</v>
+        <v>0.1389999985694885</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B77">
-        <v>18</v>
-      </c>
       <c r="C77">
-        <v>0.001000000047497451</v>
+        <v>0.05900000035762787</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B78">
-        <v>19</v>
-      </c>
       <c r="C78">
-        <v>0.001000000047497451</v>
+        <v>0.04199999943375587</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B79">
-        <v>20</v>
-      </c>
       <c r="C79">
-        <v>0.001000000047497451</v>
+        <v>0.0390000008046627</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B80">
-        <v>21</v>
-      </c>
       <c r="C80">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B81">
-        <v>22</v>
-      </c>
+        <v>0.03400000184774399</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
       <c r="C81">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>45339</v>
-      </c>
-      <c r="B82">
-        <v>23</v>
-      </c>
+        <v>0.03400000184774399</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
       <c r="C82">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
+        <v>0.03400000184774399</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
       <c r="C83">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
+        <v>0.05799999833106995</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
       <c r="C84">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
+        <v>0.05900000035762787</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
       <c r="C85">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
+        <v>0.05799999833106995</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
       <c r="C86">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B87">
-        <v>4</v>
-      </c>
+        <v>0.05700000002980232</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
       <c r="C87">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B88">
-        <v>5</v>
-      </c>
+        <v>0.05700000002980232</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
       <c r="C88">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B89">
-        <v>6</v>
-      </c>
+        <v>0.05700000002980232</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
       <c r="C89">
-        <v>0.001000000047497451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B90">
-        <v>7</v>
-      </c>
+        <v>0.05700000002980232</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
       <c r="C90">
-        <v>0.00800000037997961</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B91">
-        <v>8</v>
-      </c>
+        <v>0.07400000095367432</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
       <c r="C91">
-        <v>0.07999999821186066</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B92">
-        <v>9</v>
-      </c>
+        <v>0.1570000052452087</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
       <c r="C92">
-        <v>0.1070000007748604</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B93">
-        <v>10</v>
-      </c>
+        <v>0.1580000072717667</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
       <c r="C93">
-        <v>0.1049999967217445</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B94">
-        <v>11</v>
-      </c>
+        <v>0.1759999990463257</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
       <c r="C94">
-        <v>0.1319999992847443</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B95">
-        <v>12</v>
-      </c>
+        <v>0.210999995470047</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
       <c r="C95">
-        <v>0.1239999979734421</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B96">
-        <v>13</v>
-      </c>
+        <v>0.239999994635582</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
       <c r="C96">
-        <v>0.1389999985694885</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>45340</v>
-      </c>
-      <c r="B97">
-        <v>14</v>
-      </c>
+        <v>0.257999986410141</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
       <c r="C97">
-        <v>0.1519999951124191</v>
+        <v>0.2310000061988831</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
+++ b/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,884 +377,805 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.3129999935626984</v>
+        <v>0.1150000020861626</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0.3930000066757202</v>
+        <v>0.08799999952316284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>0.425000011920929</v>
+        <v>0.07500000298023224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>0.4020000100135803</v>
+        <v>0.03099999949336052</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>0.3459999859333038</v>
+        <v>0.009999999776482582</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>0.2029999941587448</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0.1620000004768372</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.01400000043213367</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45337</v>
+        <v>45344</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B14">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45337</v>
+        <v>45345</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>0.001000000047497451</v>
+        <v>0.00800000037997961</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>0.001000000047497451</v>
+        <v>0.03799999877810478</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>0.001000000047497451</v>
+        <v>0.07199999690055847</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>0.01099999994039536</v>
+        <v>0.08699999749660492</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>0.08600000292062759</v>
+        <v>0.1159999966621399</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25">
-        <v>0.1850000023841858</v>
+        <v>0.1110000014305115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B26">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C26">
-        <v>0.3310000002384186</v>
+        <v>0.1150000020861626</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>0.4099999964237213</v>
+        <v>0.09099999815225601</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C28">
-        <v>0.4079999923706055</v>
+        <v>0.09600000083446503</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>0.3919999897480011</v>
+        <v>0.04399999976158142</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B30">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C30">
-        <v>0.300000011920929</v>
+        <v>0.01200000010430813</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>0.1979999989271164</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>0.1389999985694885</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C33">
-        <v>0.02099999971687794</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B34">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C35">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C36">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="B37">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45338</v>
+        <v>45346</v>
       </c>
       <c r="B39">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C41">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C42">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>0.001000000047497451</v>
+        <v>0.00800000037997961</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>0.001000000047497451</v>
+        <v>0.04399999976158142</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C46">
-        <v>0.001000000047497451</v>
+        <v>0.08100000023841858</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>0.01099999994039536</v>
+        <v>0.1019999980926514</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C48">
-        <v>0.08100000023841858</v>
+        <v>0.1389999985694885</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C49">
-        <v>0.1940000057220459</v>
+        <v>0.1490000039339066</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B50">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C50">
-        <v>0.1979999989271164</v>
+        <v>0.1110000014305115</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B51">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>0.1389999985694885</v>
+        <v>0.1150000020861626</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C52">
-        <v>0.02099999971687794</v>
+        <v>0.09099999815225601</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B53">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>0.001000000047497451</v>
+        <v>0.09600000083446503</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C54">
-        <v>0.001000000047497451</v>
+        <v>0.04399999976158142</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C55">
-        <v>0.001000000047497451</v>
+        <v>0.01200000010430813</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C56">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B57">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C57">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45338</v>
+        <v>45345</v>
       </c>
       <c r="B58">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C58">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45339</v>
+        <v>45345</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45339</v>
+        <v>45345</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C60">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45339</v>
+        <v>45345</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C61">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B63">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>0.001000000047497451</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C66">
-        <v>0.01099999994039536</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B67">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>0.08100000023841858</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45339</v>
+        <v>45346</v>
       </c>
       <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>0.004000000189989805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>0.00800000037997961</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>0.04399999976158142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B71">
         <v>9</v>
       </c>
-      <c r="C68">
-        <v>0.1940000057220459</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="C69">
-        <v>0.2569999992847443</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="C70">
-        <v>0.3720000088214874</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
       <c r="C71">
-        <v>0.414000004529953</v>
+        <v>0.08100000023841858</v>
       </c>
     </row>
     <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
       <c r="C72">
-        <v>0.4050000011920929</v>
+        <v>0.1019999980926514</v>
       </c>
     </row>
     <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
       <c r="C73">
-        <v>0.3120000064373016</v>
+        <v>0.1389999985694885</v>
       </c>
     </row>
     <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>45346</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
       <c r="C74">
-        <v>0.2689999938011169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="C75">
-        <v>0.239999994635582</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="C76">
-        <v>0.1389999985694885</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="C77">
-        <v>0.05900000035762787</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="C78">
-        <v>0.04199999943375587</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="C79">
-        <v>0.0390000008046627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="C80">
-        <v>0.03400000184774399</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3">
-      <c r="C81">
-        <v>0.03400000184774399</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3">
-      <c r="C82">
-        <v>0.03400000184774399</v>
-      </c>
-    </row>
-    <row r="83" spans="3:3">
-      <c r="C83">
-        <v>0.05799999833106995</v>
-      </c>
-    </row>
-    <row r="84" spans="3:3">
-      <c r="C84">
-        <v>0.05900000035762787</v>
-      </c>
-    </row>
-    <row r="85" spans="3:3">
-      <c r="C85">
-        <v>0.05799999833106995</v>
-      </c>
-    </row>
-    <row r="86" spans="3:3">
-      <c r="C86">
-        <v>0.05700000002980232</v>
-      </c>
-    </row>
-    <row r="87" spans="3:3">
-      <c r="C87">
-        <v>0.05700000002980232</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88">
-        <v>0.05700000002980232</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89">
-        <v>0.05700000002980232</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3">
-      <c r="C90">
-        <v>0.07400000095367432</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3">
-      <c r="C91">
-        <v>0.1570000052452087</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3">
-      <c r="C92">
-        <v>0.1580000072717667</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3">
-      <c r="C93">
-        <v>0.1759999990463257</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3">
-      <c r="C94">
-        <v>0.210999995470047</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3">
-      <c r="C95">
-        <v>0.239999994635582</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96">
-        <v>0.257999986410141</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3">
-      <c r="C97">
-        <v>0.2310000061988831</v>
+        <v>0.1490000039339066</v>
       </c>
     </row>
   </sheetData>

--- a/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
+++ b/Solina/Production/Results_Production_xgb_Solina_wm.xlsx
@@ -358,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,65 +377,65 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1150000020861626</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.08799999952316284</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.07500000298023224</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.03099999949336052</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.009999999776482582</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>0.004000000189989805</v>
@@ -443,10 +443,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>0.004000000189989805</v>
@@ -454,252 +454,252 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.004000000189989805</v>
+        <v>0.00800000037997961</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.004000000189989805</v>
+        <v>0.0260000005364418</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B11">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.004000000189989805</v>
+        <v>0.05400000140070915</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B12">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>0.004000000189989805</v>
+        <v>0.07299999892711639</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>0.004000000189989805</v>
+        <v>0.08600000292062759</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>0.004000000189989805</v>
+        <v>0.0820000022649765</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>0.004000000189989805</v>
+        <v>0.08100000023841858</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>0.004000000189989805</v>
+        <v>0.06800000369548798</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0.004000000189989805</v>
+        <v>0.05499999970197678</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>0.004000000189989805</v>
+        <v>0.0260000005364418</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>0.004000000189989805</v>
+        <v>0.008999999612569809</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B20">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C20">
-        <v>0.00800000037997961</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>0.03799999877810478</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B22">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C22">
-        <v>0.07199999690055847</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>0.08699999749660492</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C24">
-        <v>0.1159999966621399</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>45345</v>
+        <v>45342</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1110000014305115</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0.1150000020861626</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B27">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0.09099999815225601</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B28">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.09600000083446503</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>0.04399999976158142</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>0.01200000010430813</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B31">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C31">
         <v>0.004000000189989805</v>
@@ -707,10 +707,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B32">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>0.004000000189989805</v>
@@ -718,263 +718,263 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B33">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>0.004000000189989805</v>
+        <v>0.00800000037997961</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B34">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C34">
-        <v>0.004000000189989805</v>
+        <v>0.0390000008046627</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>0.004000000189989805</v>
+        <v>0.06300000101327896</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>45345</v>
+        <v>45343</v>
       </c>
       <c r="B36">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>0.004000000189989805</v>
+        <v>0.08799999952316284</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C37">
-        <v>0.004000000189989805</v>
+        <v>0.1040000021457672</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>0.004000000189989805</v>
+        <v>0.09099999815225601</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>0.004000000189989805</v>
+        <v>0.0949999988079071</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>0.004000000189989805</v>
+        <v>0.08100000023841858</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C41">
-        <v>0.004000000189989805</v>
+        <v>0.07199999690055847</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C42">
-        <v>0.004000000189989805</v>
+        <v>0.03599999845027924</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B43">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C43">
-        <v>0.004000000189989805</v>
+        <v>0.01099999994039536</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B44">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C44">
-        <v>0.00800000037997961</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>0.04399999976158142</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B46">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C46">
-        <v>0.08100000023841858</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B47">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>0.1019999980926514</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B48">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C48">
-        <v>0.1389999985694885</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>45346</v>
+        <v>45343</v>
       </c>
       <c r="B49">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>0.1490000039339066</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B50">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>0.1110000014305115</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>0.1150000020861626</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C52">
-        <v>0.09099999815225601</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>0.09600000083446503</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B54">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0.04399999976158142</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B55">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C55">
-        <v>0.01200000010430813</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B56">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C56">
         <v>0.004000000189989805</v>
@@ -982,131 +982,131 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B57">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>0.004000000189989805</v>
+        <v>0.00800000037997961</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B58">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58">
-        <v>0.004000000189989805</v>
+        <v>0.03799999877810478</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B59">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C59">
-        <v>0.004000000189989805</v>
+        <v>0.06300000101327896</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B60">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>0.004000000189989805</v>
+        <v>0.08699999749660492</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C61">
-        <v>0.004000000189989805</v>
+        <v>0.1230000033974648</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C62">
-        <v>0.004000000189989805</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C63">
-        <v>0.004000000189989805</v>
+        <v>0.1270000040531158</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>0.004000000189989805</v>
+        <v>0.1169999986886978</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>0.004000000189989805</v>
+        <v>0.1220000013709068</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B66">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>0.004000000189989805</v>
+        <v>0.07100000232458115</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>0.004000000189989805</v>
+        <v>0.01099999994039536</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B68">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C68">
         <v>0.004000000189989805</v>
@@ -1114,68 +1114,57 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B69">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C69">
-        <v>0.00800000037997961</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B70">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C70">
-        <v>0.04399999976158142</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B71">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>0.08100000023841858</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B72">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>0.1019999980926514</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
-        <v>45346</v>
+        <v>45344</v>
       </c>
       <c r="B73">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>0.1389999985694885</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>45346</v>
-      </c>
-      <c r="B74">
-        <v>12</v>
-      </c>
-      <c r="C74">
-        <v>0.1490000039339066</v>
+        <v>0.004000000189989805</v>
       </c>
     </row>
   </sheetData>
